--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H2">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I2">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J2">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.4984935</v>
+        <v>5.187993000000001</v>
       </c>
       <c r="N2">
-        <v>12.996987</v>
+        <v>10.375986</v>
       </c>
       <c r="O2">
-        <v>0.136717006960842</v>
+        <v>0.2055237229286108</v>
       </c>
       <c r="P2">
-        <v>0.1171455833533661</v>
+        <v>0.1647366551777407</v>
       </c>
       <c r="Q2">
-        <v>2.5892662486335</v>
+        <v>0.8911441516065001</v>
       </c>
       <c r="R2">
-        <v>10.357064994534</v>
+        <v>3.564576606426</v>
       </c>
       <c r="S2">
-        <v>0.01222983379825091</v>
+        <v>0.008350794472161315</v>
       </c>
       <c r="T2">
-        <v>0.007200777747516081</v>
+        <v>0.00452362994571818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H3">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I3">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J3">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.026004999999999</v>
+        <v>7.026005</v>
       </c>
       <c r="N3">
         <v>21.078015</v>
       </c>
       <c r="O3">
-        <v>0.1478149319518301</v>
+        <v>0.2783370573003924</v>
       </c>
       <c r="P3">
-        <v>0.189982213808939</v>
+        <v>0.3346498047401226</v>
       </c>
       <c r="Q3">
-        <v>2.799448458205</v>
+        <v>1.2068603918525</v>
       </c>
       <c r="R3">
-        <v>16.79669074923</v>
+        <v>7.241162351115</v>
       </c>
       <c r="S3">
-        <v>0.01322258357505164</v>
+        <v>0.01130932977653936</v>
       </c>
       <c r="T3">
-        <v>0.01167794515558184</v>
+        <v>0.00918940521414514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H4">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I4">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J4">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.048527</v>
+        <v>2.488866666666667</v>
       </c>
       <c r="N4">
-        <v>6.145581</v>
+        <v>7.4666</v>
       </c>
       <c r="O4">
-        <v>0.04309744714193724</v>
+        <v>0.09859711514766022</v>
       </c>
       <c r="P4">
-        <v>0.05539188977340388</v>
+        <v>0.118545139666738</v>
       </c>
       <c r="Q4">
-        <v>0.816217146407</v>
+        <v>0.4275138717666666</v>
       </c>
       <c r="R4">
-        <v>4.897302878442001</v>
+        <v>2.5650832306</v>
       </c>
       <c r="S4">
-        <v>0.003855223482370111</v>
+        <v>0.004006176184498814</v>
       </c>
       <c r="T4">
-        <v>0.003404863212555158</v>
+        <v>0.003255221754607163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H5">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I5">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J5">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.151532</v>
+        <v>7.555099</v>
       </c>
       <c r="N5">
-        <v>50.303064</v>
+        <v>15.110198</v>
       </c>
       <c r="O5">
-        <v>0.5291445125735433</v>
+        <v>0.299297256872595</v>
       </c>
       <c r="P5">
-        <v>0.453395989142846</v>
+        <v>0.2399004275442726</v>
       </c>
       <c r="Q5">
-        <v>10.021401561612</v>
+        <v>1.2977431327795</v>
       </c>
       <c r="R5">
-        <v>40.085606246448</v>
+        <v>5.190972531118</v>
       </c>
       <c r="S5">
-        <v>0.04733390225463627</v>
+        <v>0.01216097997160587</v>
       </c>
       <c r="T5">
-        <v>0.02786962731309012</v>
+        <v>0.006587609520534333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H6">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I6">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J6">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.761096</v>
+        <v>0.8052820000000001</v>
       </c>
       <c r="N6">
-        <v>11.283288</v>
+        <v>2.415846</v>
       </c>
       <c r="O6">
-        <v>0.0791269219569728</v>
+        <v>0.03190146067032041</v>
       </c>
       <c r="P6">
-        <v>0.101699521197031</v>
+        <v>0.03835571766042516</v>
       </c>
       <c r="Q6">
-        <v>1.498574851336</v>
+        <v>0.138323691781</v>
       </c>
       <c r="R6">
-        <v>8.991449108016001</v>
+        <v>0.829942150686</v>
       </c>
       <c r="S6">
-        <v>0.007078191119105726</v>
+        <v>0.001296213097074535</v>
       </c>
       <c r="T6">
-        <v>0.006251329569631425</v>
+        <v>0.001053239018426151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H7">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I7">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J7">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.046790666666667</v>
+        <v>2.179548333333333</v>
       </c>
       <c r="N7">
-        <v>9.140372000000001</v>
+        <v>6.538645000000001</v>
       </c>
       <c r="O7">
-        <v>0.06409917941487439</v>
+        <v>0.08634338708042119</v>
       </c>
       <c r="P7">
-        <v>0.08238480272441405</v>
+        <v>0.1038122552107008</v>
       </c>
       <c r="Q7">
-        <v>1.213966320017334</v>
+        <v>0.3743821069908334</v>
       </c>
       <c r="R7">
-        <v>7.283797920104002</v>
+        <v>2.246292641945</v>
       </c>
       <c r="S7">
-        <v>0.005733904861395246</v>
+        <v>0.003508285414766059</v>
       </c>
       <c r="T7">
-        <v>0.005064080413531157</v>
+        <v>0.002850660200044646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>12.167163</v>
       </c>
       <c r="I8">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J8">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.4984935</v>
+        <v>5.187993000000001</v>
       </c>
       <c r="N8">
-        <v>12.996987</v>
+        <v>10.375986</v>
       </c>
       <c r="O8">
-        <v>0.136717006960842</v>
+        <v>0.2055237229286108</v>
       </c>
       <c r="P8">
-        <v>0.1171455833533661</v>
+        <v>0.1647366551777407</v>
       </c>
       <c r="Q8">
-        <v>26.3560765563135</v>
+        <v>21.041052157953</v>
       </c>
       <c r="R8">
-        <v>158.136459337881</v>
+        <v>126.246312947718</v>
       </c>
       <c r="S8">
-        <v>0.1244871731625911</v>
+        <v>0.1971729284564495</v>
       </c>
       <c r="T8">
-        <v>0.10994480560585</v>
+        <v>0.1602130252320225</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>12.167163</v>
       </c>
       <c r="I9">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J9">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.026004999999999</v>
+        <v>7.026005</v>
       </c>
       <c r="N9">
         <v>21.078015</v>
       </c>
       <c r="O9">
-        <v>0.1478149319518301</v>
+        <v>0.2783370573003924</v>
       </c>
       <c r="P9">
-        <v>0.189982213808939</v>
+        <v>0.3346498047401226</v>
       </c>
       <c r="Q9">
         <v>28.495516024605</v>
@@ -1013,10 +1013,10 @@
         <v>256.459644221445</v>
       </c>
       <c r="S9">
-        <v>0.1345923483767785</v>
+        <v>0.267027727523853</v>
       </c>
       <c r="T9">
-        <v>0.1783042686533572</v>
+        <v>0.3254603995259775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>12.167163</v>
       </c>
       <c r="I10">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J10">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.048527</v>
+        <v>2.488866666666667</v>
       </c>
       <c r="N10">
-        <v>6.145581</v>
+        <v>7.4666</v>
       </c>
       <c r="O10">
-        <v>0.04309744714193724</v>
+        <v>0.09859711514766022</v>
       </c>
       <c r="P10">
-        <v>0.05539188977340388</v>
+        <v>0.118545139666738</v>
       </c>
       <c r="Q10">
-        <v>8.308253972967</v>
+        <v>10.0941488062</v>
       </c>
       <c r="R10">
-        <v>74.77428575670301</v>
+        <v>90.84733925579999</v>
       </c>
       <c r="S10">
-        <v>0.03924222365956712</v>
+        <v>0.09459093896316141</v>
       </c>
       <c r="T10">
-        <v>0.05198702656084872</v>
+        <v>0.1152899179121309</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>12.167163</v>
       </c>
       <c r="I11">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J11">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.151532</v>
+        <v>7.555099</v>
       </c>
       <c r="N11">
-        <v>50.303064</v>
+        <v>15.110198</v>
       </c>
       <c r="O11">
-        <v>0.5291445125735433</v>
+        <v>0.299297256872595</v>
       </c>
       <c r="P11">
-        <v>0.453395989142846</v>
+        <v>0.2399004275442726</v>
       </c>
       <c r="Q11">
-        <v>102.007596514572</v>
+        <v>30.641373671379</v>
       </c>
       <c r="R11">
-        <v>612.045579087432</v>
+        <v>183.848242028274</v>
       </c>
       <c r="S11">
-        <v>0.481810610318907</v>
+        <v>0.2871362769009891</v>
       </c>
       <c r="T11">
-        <v>0.4255263618297559</v>
+        <v>0.2333128180237383</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>12.167163</v>
       </c>
       <c r="I12">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J12">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.761096</v>
+        <v>0.8052820000000001</v>
       </c>
       <c r="N12">
-        <v>11.283288</v>
+        <v>2.415846</v>
       </c>
       <c r="O12">
-        <v>0.0791269219569728</v>
+        <v>0.03190146067032041</v>
       </c>
       <c r="P12">
-        <v>0.101699521197031</v>
+        <v>0.03835571766042516</v>
       </c>
       <c r="Q12">
-        <v>15.253956030216</v>
+        <v>3.265999118322001</v>
       </c>
       <c r="R12">
-        <v>137.285604271944</v>
+        <v>29.393992064898</v>
       </c>
       <c r="S12">
-        <v>0.07204873083786707</v>
+        <v>0.03060524757324588</v>
       </c>
       <c r="T12">
-        <v>0.09544819162739954</v>
+        <v>0.037302478641999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>12.167163</v>
       </c>
       <c r="I13">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J13">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.046790666666667</v>
+        <v>2.179548333333333</v>
       </c>
       <c r="N13">
-        <v>9.140372000000001</v>
+        <v>6.538645000000001</v>
       </c>
       <c r="O13">
-        <v>0.06409917941487439</v>
+        <v>0.08634338708042119</v>
       </c>
       <c r="P13">
-        <v>0.08238480272441405</v>
+        <v>0.1038122552107008</v>
       </c>
       <c r="Q13">
-        <v>12.356932889404</v>
+        <v>8.839639946015001</v>
       </c>
       <c r="R13">
-        <v>111.212396004636</v>
+        <v>79.55675951413501</v>
       </c>
       <c r="S13">
-        <v>0.05836527455347915</v>
+        <v>0.08283510166565514</v>
       </c>
       <c r="T13">
-        <v>0.0773207223108829</v>
+        <v>0.1009615950106561</v>
       </c>
     </row>
   </sheetData>
